--- a/문서/CharBuy.xlsx
+++ b/문서/CharBuy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SJpark\Desktop\PROJ\문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepo\Repo\basefile\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C08C45-3725-4EAB-B865-1DBD69B227D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF576AA-57C7-4A12-879D-55EB68D7338B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7620" yWindow="1620" windowWidth="19065" windowHeight="12420" xr2:uid="{E9C8674C-035B-4A36-9D0F-B1F5F283A63A}"/>
+    <workbookView xWindow="-23100" yWindow="2415" windowWidth="21600" windowHeight="11385" xr2:uid="{E9C8674C-035B-4A36-9D0F-B1F5F283A63A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,251 +30,7 @@
     <author>SJpark</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{9A3D7E3C-400D-44CB-8C45-923E6E197BA6}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>SJpark:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>모험가</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>랭크
-모험가</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>랭크가</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>이면</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>레벨과</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 2</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>레벨</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>모험가가</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 50% </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>확률로</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>나올</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>수</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>있다는</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움체"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>뜻</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{CB83A904-5A7B-43A2-B0FB-025FA90E34B1}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{CB83A904-5A7B-43A2-B0FB-025FA90E34B1}">
       <text>
         <r>
           <rPr>
@@ -514,17 +270,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>cost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unlock</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -913,305 +665,242 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE1BC86-E4FD-4540-AB38-50888AA05860}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>1500</v>
       </c>
       <c r="C2">
-        <v>1500</v>
-      </c>
-      <c r="D2">
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2500</v>
       </c>
       <c r="C3">
-        <v>2500</v>
-      </c>
-      <c r="D3">
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3500</v>
       </c>
       <c r="C4">
-        <v>3500</v>
-      </c>
-      <c r="D4">
         <v>225</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>4500</v>
       </c>
       <c r="C5">
-        <v>4500</v>
-      </c>
-      <c r="D5">
         <v>275</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>5500</v>
       </c>
       <c r="C6">
-        <v>5500</v>
-      </c>
-      <c r="D6">
         <v>325</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>6500</v>
       </c>
       <c r="C7">
-        <v>6500</v>
-      </c>
-      <c r="D7">
         <v>375</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>7500</v>
       </c>
       <c r="C8">
-        <v>7500</v>
-      </c>
-      <c r="D8">
         <v>425</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>8500</v>
       </c>
       <c r="C9">
-        <v>8500</v>
-      </c>
-      <c r="D9">
         <v>475</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>9500</v>
       </c>
       <c r="C10">
-        <v>9500</v>
-      </c>
-      <c r="D10">
         <v>525</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>10500</v>
       </c>
       <c r="C11">
-        <v>10500</v>
-      </c>
-      <c r="D11">
         <v>575</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>11500</v>
       </c>
       <c r="C12">
-        <v>11500</v>
-      </c>
-      <c r="D12">
         <v>625</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>12500</v>
       </c>
       <c r="C13">
-        <v>12500</v>
-      </c>
-      <c r="D13">
         <v>675</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>7</v>
+        <v>13500</v>
       </c>
       <c r="C14">
-        <v>13500</v>
-      </c>
-      <c r="D14">
         <v>725</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>7</v>
+        <v>14500</v>
       </c>
       <c r="C15">
-        <v>14500</v>
-      </c>
-      <c r="D15">
         <v>775</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>8</v>
+        <v>15500</v>
       </c>
       <c r="C16">
-        <v>15500</v>
-      </c>
-      <c r="D16">
         <v>825</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>8</v>
+        <v>16500</v>
       </c>
       <c r="C17">
-        <v>16500</v>
-      </c>
-      <c r="D17">
         <v>875</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>9</v>
+        <v>17500</v>
       </c>
       <c r="C18">
-        <v>17500</v>
-      </c>
-      <c r="D18">
         <v>925</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>9</v>
+        <v>18500</v>
       </c>
       <c r="C19">
-        <v>18500</v>
-      </c>
-      <c r="D19">
         <v>975</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>10</v>
+        <v>19500</v>
       </c>
       <c r="C20">
-        <v>19500</v>
-      </c>
-      <c r="D20">
         <v>1025</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>10</v>
+        <v>20500</v>
       </c>
       <c r="C21">
-        <v>20500</v>
-      </c>
-      <c r="D21">
         <v>1075</v>
       </c>
     </row>
